--- a/Auditoría interna/Cumplimiento ISO 27001- 13.06.2021.xlsx
+++ b/Auditoría interna/Cumplimiento ISO 27001- 13.06.2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{A5859C76-1EF6-416A-80E1-E239110BAC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9FFDBB7-2774-40BF-8A0D-F959C09C39A8}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{A5859C76-1EF6-416A-80E1-E239110BAC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC846F06-F754-4B32-8615-383F9359D7A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{867479C0-B84A-41E1-9D04-ED15AA3FF195}"/>
   </bookViews>
@@ -133,22 +133,6 @@
     <t>5.3 Roles organizacionales, responsabilidades y autoridades</t>
   </si>
   <si>
-    <t>La gerencia proporciona evidencia de su compromiso con el establecimiento, implementación, operación, monitoreo, mantenimiento y mejoramiento del SGSI a través de las siguientes acciones:
-a) garantizar que la política de seguridad de la información y los objetivos de seguridad de la información se establecen
-y son compatibles con la dirección estratégica de la organización;
-b) garantizar la integración de los requisitos del sistema de gestión de la seguridad de la información en los
-b) garantizar la integración de los requisitos del sistema de gestión de la seguridad de la información en los procesos de la organización
-c) garantizar la disponibilidad de los recursos necesarios para el sistema de gestión de la seguridad de la información
-d) comunicar la importancia de una gestión eficaz de la seguridad de la información y de la conformidad con
-d) comunicar la importancia de una gestión eficaz de la seguridad de la información y del cumplimiento de los requisitos del sistema de gestión de la seguridad de la información
-e) Garantizar que el sistema de gestión de la seguridad de la información logre los resultados previstos;
-f) dirigir y apoyar a las personas para que contribuyan a la eficacia del sistema de gestión de la seguridad de la información
-seguridad de la información;
-g) promover la mejora continua; y
-h) apoyar a otras funciones de gestión pertinentes para que demuestren su liderazgo en lo que respecta a sus
-áreas de responsabilidad.</t>
-  </si>
-  <si>
     <t>La gerencia debe establecer una política de seguridad de la información que:
 a) es apropiado para el propósito de la organización;
 b) incluya objetivos de seguridad de la información o proporcione el marco para establecer objetivos de seguridad de la información;
@@ -415,6 +399,19 @@
   <si>
     <t xml:space="preserve">                                                  
                                                       CUMPLIMIENTO ISO/IEC 27001</t>
+  </si>
+  <si>
+    <t>La gerencia proporciona evidencia de su compromiso con el establecimiento, implementación, operación, monitoreo, mantenimiento y mejoramiento del SGSI a través de las siguientes acciones:
+a) garantizar que la política de seguridad de la información y los objetivos de seguridad de la información se establecen y son compatibles con la dirección estratégica de la organización;
+b) garantizar la integración de los requisitos del sistema de gestión de la seguridad de la información en los procesos de la organización
+c) garantizar la disponibilidad de los recursos necesarios para el sistema de gestión de la seguridad de la información
+d) comunicar la importancia de una gestión eficaz de la seguridad de la información y de la conformidad con
+d) comunicar la importancia de una gestión eficaz de la seguridad de la información y del cumplimiento de los requisitos del sistema de gestión de la seguridad de la información
+e) Garantizar que el sistema de gestión de la seguridad de la información logre los resultados previstos;
+f) dirigir y apoyar a las personas para que contribuyan a la eficacia del sistema de gestión de la seguridad de la información seguridad de la información;
+g) promover la mejora continua; y
+h) apoyar a otras funciones de gestión pertinentes para que demuestren su liderazgo en lo que respecta a sus
+áreas de responsabilidad.</t>
   </si>
 </sst>
 </file>
@@ -725,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2465,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D990147-B79B-47FB-B9AB-D47D64F7973A}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2732,7 +2732,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2804,8 +2804,8 @@
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>76</v>
+      <c r="A13" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -2820,8 +2820,8 @@
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>79</v>
+      <c r="A15" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>19</v>
@@ -2837,14 +2837,14 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>78</v>
+      <c r="A18" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -2861,8 +2861,8 @@
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>68</v>
+      <c r="A20" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -2885,9 +2885,9 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>29</v>
+    <row r="23" spans="1:3" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -2904,14 +2904,14 @@
       <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>30</v>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,8 +2922,8 @@
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
+      <c r="A27" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
@@ -2934,28 +2934,28 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>70</v>
+      <c r="A31" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>19</v>
@@ -2964,14 +2964,14 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" ht="357" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>72</v>
+      <c r="A33" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>5</v>
@@ -2982,14 +2982,14 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" ht="408" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>74</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>19</v>
@@ -2998,14 +2998,14 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>75</v>
+      <c r="A37" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>19</v>
@@ -3014,21 +3014,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>60</v>
+      <c r="A40" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>19</v>
@@ -3037,14 +3037,14 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>62</v>
+      <c r="A42" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>19</v>
@@ -3053,14 +3053,14 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>61</v>
+      <c r="A44" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>19</v>
@@ -3069,14 +3069,14 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>63</v>
+      <c r="A46" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>19</v>
@@ -3085,14 +3085,14 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>64</v>
+      <c r="A48" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>19</v>
@@ -3101,21 +3101,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>52</v>
+      <c r="A51" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>19</v>
@@ -3124,14 +3124,14 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>53</v>
+      <c r="A53" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>19</v>
@@ -3140,14 +3140,14 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>54</v>
+      <c r="A55" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>19</v>
@@ -3156,21 +3156,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>48</v>
+      <c r="A58" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>19</v>
@@ -3179,75 +3179,75 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>47</v>
+      <c r="A60" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>46</v>
+      <c r="A62" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
     </row>
     <row r="65" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>43</v>
+      <c r="A65" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>42</v>
+      <c r="A67" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -3259,21 +3259,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="36">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A56:C56"/>
@@ -3290,11 +3280,21 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="65" priority="184" stopIfTrue="1" operator="equal">
